--- a/biology/Zoologie/Gehyra_oceanica/Gehyra_oceanica.xlsx
+++ b/biology/Zoologie/Gehyra_oceanica/Gehyra_oceanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gehyra oceanica est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gehyra oceanica est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Nouvelle-Guinée, aux États fédérés de Micronésie, aux Salomon, au Vanuatu, à Nauru, aux îles Cook, aux Samoa, aux Fidji, aux Tonga et aux îles de la Société[1],[2]..
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Nouvelle-Guinée, aux États fédérés de Micronésie, aux Salomon, au Vanuatu, à Nauru, aux îles Cook, aux Samoa, aux Fidji, aux Tonga et aux îles de la Société,..
 Sa présence en Australie et à Guam est incertaine.
-Cette espèce est arboricole, elle vit dans la forêt primaire et secondaire ainsi que dans les fourrés côtiers[3].
+Cette espèce est arboricole, elle vit dans la forêt primaire et secondaire ainsi que dans les fourrés côtiers.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko a été figuré sur un timbre du Kiribati en 1986 (55 c.)
 </t>
